--- a/medicine/Psychotrope/Pilsens_Samlingsparti/Pilsens_Samlingsparti.xlsx
+++ b/medicine/Psychotrope/Pilsens_Samlingsparti/Pilsens_Samlingsparti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pilsens Samlingsparti (PsP) est un ancien parti politique norvégien, qui n'était présent que dans le comté de Vest-Agder. 
 Le programme du parti tenait en dix points, tous liés à la bière et aux brasseries. Le but étant de diminuer les taxes sur l'alcool et en particulier la bière, de rendre plus facile l'obtention d'une licence, de soutenir l'aspect culturel des brasseries. 
